--- a/Project Outputs for x-IMU3-SA-TRRS/BOM/Bill of Materials-x-IMU3-SA-TRRS.xlsx
+++ b/Project Outputs for x-IMU3-SA-TRRS/BOM/Bill of Materials-x-IMU3-SA-TRRS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\x-io\Products\x-IMU3\x-IMU3-SA-TRRS\Project Outputs for x-IMU3-SA-TRRS\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C06BD0FF-A447-4F04-BD5A-8EB6AB1B8498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F34B5E0F-EA93-42D1-A31B-3BA84B63003F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="2620" windowWidth="28540" windowHeight="17000" xr2:uid="{3B0C8E31-1103-4387-B996-11ADFBA59680}"/>
+    <workbookView xWindow="-23540" yWindow="4640" windowWidth="23560" windowHeight="16870" xr2:uid="{7444A291-558E-4C5D-B6CD-3DC420E97971}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-x-IMU3-SA-TRR" sheetId="1" r:id="rId1"/>
@@ -445,7 +445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7F2844-58A0-449B-A420-3E85B98C427F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529F78F4-7D57-4FDF-A37A-3B81C8CE7C35}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -516,6 +516,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="120" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>